--- a/src/test/resources/FHEO-TestdataAll.xlsx
+++ b/src/test/resources/FHEO-TestdataAll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\IdeaProjects\formservice-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC68FE-9F6F-417A-A030-2F0557413DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC3C6F2-C0E9-4BF2-B3D9-B0DB4117E442}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9265" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9266" uniqueCount="939">
   <si>
     <t>race</t>
   </si>
@@ -2845,6 +2845,9 @@
   </si>
   <si>
     <t>05-12-2021</t>
+  </si>
+  <si>
+    <t>discDateWithTimestamp</t>
   </si>
 </sst>
 </file>
@@ -3790,13 +3793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK369"/>
+  <dimension ref="A1:AL369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2:T369"/>
+      <selection pane="bottomRight" activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3841,7 +3844,7 @@
     <col min="38" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3953,8 +3956,11 @@
       <c r="AK1" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>938</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -5375,7 +5381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -5483,7 +5489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
